--- a/vocablist/mimi.xlsx
+++ b/vocablist/mimi.xlsx
@@ -14,70 +14,2129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>晩年</t>
   </si>
   <si>
-    <t>青春</t>
-  </si>
-  <si>
-    <t>せいしゅん</t>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>青春</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>せいしゅん</t>
+    </r>
   </si>
   <si>
     <t>thanh xuân</t>
-  </si>
-  <si>
-    <t>ばんねん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ばんねん</t>
+    </r>
   </si>
   <si>
     <t>cuối đời, tuổi xế bóng</t>
-  </si>
-  <si>
-    <t>葬式</t>
-  </si>
-  <si>
-    <t>そうしき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>葬式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そうしき</t>
+    </r>
   </si>
   <si>
     <t>tang lễ, đám tang</t>
-  </si>
-  <si>
-    <t>世帯</t>
-  </si>
-  <si>
-    <t>せたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>世帯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>せたい</t>
+    </r>
   </si>
   <si>
     <t>hộ gia đình</t>
-  </si>
-  <si>
-    <t>世間</t>
-  </si>
-  <si>
-    <t>せけん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>世間</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>せけん</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">thế gian, xã hội </t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>STT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>庶民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しょみん</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dân đen, dân thường </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>おんぶする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>địu, cõng trên lưng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>phụ thuộc, sống nhờ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実家に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片言</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かたこと</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nói bập bõm, nói đứt đoạn, nói không trôi chảy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> tám chuyện</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>夜更かし</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>よふかし</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">thức khuya  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テレビを見て夜更かしする</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家出</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いえで</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bỏ nhà ra đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　家出少女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> đi ra khỏi nhà</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>戸締り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とじまり</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">khóa cửa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　戸締りして外出する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ずぶ濡れ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ずぶぬれ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ướt s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ũ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顔つき</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かおつき</t>
+    </r>
+  </si>
+  <si>
+    <t>vẻ mặt, nét mặt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身なり</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>みなり</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diện mạo, bộ dạng, cách ăn mặc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身なりを整える</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身の回り</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>みのまわり</t>
+    </r>
+  </si>
+  <si>
+    <t>những thứ xung quanh bản thân</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身振り</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>みぶり</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Điệu bộ, cử chỉ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>身振り手振りで説明する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>良心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>りょうしん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lương tâm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　良心をとがめる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xem xét, dằn vặt lương tâm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　（失敗をとがめる）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>素質</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そしつ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tố chất, năng khiếu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（素質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>努力＝才能）　芸能人の素質がある</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>好意</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こうい</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">hảo ý, lòng tốt </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ため息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ためいき</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tiếng thở dài </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ど忘れ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>どわすれ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sự đãng trí </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ようじん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cẩn thận đối với nguy hiểm (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>泥棒が入らないように用心する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>予感する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>よかん</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dự cảm, linh tính </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>視線</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しせん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ánh mắt, ánh nhìn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　視線を逸らす</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> lảng tránh ánh mắt của người khác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>迷信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>めいしん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mê tín  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>私の祖父は迷信深い人であった</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>縁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>えん</t>
+    </r>
+  </si>
+  <si>
+    <t>duyên nợ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使い捨て</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>つかいすて</t>
+    </r>
+  </si>
+  <si>
+    <t>sử dụng 1 lần rồi bỏ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>下取り</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>したどり</t>
+    </r>
+  </si>
+  <si>
+    <t>đổi cũ lấy mới, có bù thêm tiền</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>倹約</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>けんやく</t>
+    </r>
+  </si>
+  <si>
+    <t>tiết kiệm (không dùng với tài nguyên thiên nhiên, thời gian)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>出費する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しゅっぴ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>chi tiêu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>nói về mức độ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が多い、が少ない、がかさむ　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tăng, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を切り詰める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cắt giảm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>かいけい</t>
+    </r>
+  </si>
+  <si>
+    <t>kế toán, tính tiền</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所得</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しょとく</t>
+    </r>
+  </si>
+  <si>
+    <t>sau khi đã khấu trừ, thường dùng trong sổ sách, giấy tờ, tính chính xác</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>採用する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さいよう</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">thuê, mướn, tuyển dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sử dụng, thừa nhận</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>雇用する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こよう</t>
+    </r>
+  </si>
+  <si>
+    <t>thuê, mướn, tuyển dụng (từ này chỉ dùng cho con người )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>所属する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しょぞく</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">là thành viên của tổ chức, nhóm nào đó  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（営業部に、区のボランティア会に、テニス部に所属する）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>待遇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たいぐう</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>chế độ đãi ngộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tiếp đón (không dùng với đãi món ăn, dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>派遣する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はけん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sự sai bảo, sự phái đi
+chủ thể của hành động là bản thân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">派遣される
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">chủ thể của hành động không phải là bản thân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>派遣する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赴任する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ふにん</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chuyển công tác (những người có trách nhiệm, vai trò cao như tổ trưởng, trưởng phòng,... nhận nhiệm vụ xây dựng một chi nhanh mới hoặc một trách nhiệm mới cao hơn, khó khăn hơn)
+chủ thể của hành động là bản thân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赴任する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赴任させられる（家族と共に海外に赴任する）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>地元</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>じもと</t>
+    </r>
+  </si>
+  <si>
+    <t>địa phương của mình, quê nhà</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現役</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>げんえき</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hiện tại đang hoạt động rất thành công với vai trò, địa vị cao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現役の選手</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指図する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さしず</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">chỉ thị, hướng dẫn . </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>操縦する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そうじゅう</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>điều khiển, vận hành (máy bay, tàu thuyền)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>điều khiển con người</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>主食</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しゅしょく</t>
+    </r>
+  </si>
+  <si>
+    <t>lương thực chính, thức ăn chính trong bữa ăn (gạo, cơm, v.v)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>食物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>しょくもつ</t>
+    </r>
+  </si>
+  <si>
+    <t>thực phẩm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>穀物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こくもつ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ũ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cốc, bột mì, đậu,v.v ngoại trừ gạo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>豊作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ほうさく</t>
+    </r>
+  </si>
+  <si>
+    <t>trúng mùa, mùa màng bội thu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>れいねん</t>
+    </r>
+  </si>
+  <si>
+    <t>định kì hàng năm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>種</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たね</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hạt, hạt giống  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とげ</t>
+    </r>
+  </si>
+  <si>
+    <t>cái gai, cái dằm (gỗ, tre,v.v)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>どく</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">độc, chất độc, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>độc hại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> từ ngữ có chứa chất độc, từ ngữ cay nghiệt</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +2161,33 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -138,7 +2217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -150,6 +2229,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,44 +2544,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -501,52 +2591,678 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="55.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.200000000000003">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.200000000000003">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.799999999999997">
+      <c r="A15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.200000000000003">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="55.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="55.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="40.200000000000003">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="55.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="82.8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="55.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="41.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="55.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="81">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="69">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="123">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="232.8">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27.6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="68.400000000000006">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="55.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="55.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="41.4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27.6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="27.6">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="69">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
